--- a/Podatki in tabele.xlsx
+++ b/Podatki in tabele.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EEG Raziskovalna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3B2433-E26C-41DF-8DE7-0E96D2D5E7E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D4ECEB8-4F00-478F-B43D-FBCB7E5DFADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10410" yWindow="6930" windowWidth="14400" windowHeight="10410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="33">
   <si>
     <t>Udeleženci</t>
   </si>
@@ -175,17 +175,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Navadno" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
@@ -805,7 +809,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>  osebkih testirano na osebku, ki ni del grajene množice, </a:t>
+            <a:t>, </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100">
@@ -830,6 +834,266 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2905125" cy="3295650"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="PoljeZBesedilom 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CE2D1BC-E6D8-408D-A483-3EDDB670C6D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7153275" y="19507200"/>
+          <a:ext cx="2905125" cy="3295650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="sl-SI" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Prečno preverjanje z desetimi stratificiranimi </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="sl-SI" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>pregibi, grajeno </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="sl-SI" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>na prvih 5 čustev</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="sl-SI" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> krat 16 osebka na katerem </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="sl-SI" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>testiramo</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="sl-SI" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>preverjamo z modelom bajes, </a:t>
+          </a:r>
+          <a:endParaRPr lang="sl-SI" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>kNN in nevronsko mrežo in modelom drevesa. </a:t>
+          </a:r>
+          <a:endParaRPr lang="sl-SI">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="sl-SI" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -838,7 +1102,7 @@
   <autoFilter ref="A23:I40" xr:uid="{B1CF9976-2432-445F-9846-9CFCECD3FDE3}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{1813450D-5026-4259-A3F0-B925C98055D6}" name="Udeleženci"/>
-    <tableColumn id="2" xr3:uid="{D357754D-E7FC-45CE-950A-F7BD21A44080}" name="kNN - AUC" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{D357754D-E7FC-45CE-950A-F7BD21A44080}" name="kNN - AUC" dataDxfId="4"/>
     <tableColumn id="3" xr3:uid="{B9924E59-426A-4C3E-97D5-8F9D9D03DF52}" name="kNN - CA"/>
     <tableColumn id="4" xr3:uid="{6C191369-43A4-4EBE-8FAC-F42EA873101C}" name="NN - AUC"/>
     <tableColumn id="5" xr3:uid="{8B517D58-5C25-42A5-8727-A51BDA556AD9}" name="NN - CA"/>
@@ -870,7 +1134,7 @@
   <autoFilter ref="A54:I55" xr:uid="{2EBF3625-EE13-4661-B08E-D0F1F8400BA8}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{377473A0-3753-42F9-A0F3-5817058E1206}" name="Udeleženci"/>
-    <tableColumn id="2" xr3:uid="{8D5F723E-9938-4CAB-81F5-02E1E9474F5B}" name="kNN - AUC" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{8D5F723E-9938-4CAB-81F5-02E1E9474F5B}" name="kNN - AUC" dataDxfId="3"/>
     <tableColumn id="3" xr3:uid="{6C6E8BE9-7AE0-4545-9609-7DF273018AAF}" name="kNN - CA"/>
     <tableColumn id="4" xr3:uid="{E083DA11-3923-4816-BB2B-5F9E6CB3BBF7}" name="NN - AUC"/>
     <tableColumn id="5" xr3:uid="{4FBCF566-ED60-4F0D-AC9F-64A93B9F1D7B}" name="NN - CA"/>
@@ -888,7 +1152,7 @@
   <autoFilter ref="A64:I81" xr:uid="{587DF81A-78C3-45B3-A0BC-9D57B413765E}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{F0428145-D093-4851-8D41-09091EB0872F}" name="Udeleženci"/>
-    <tableColumn id="2" xr3:uid="{8C4900F8-A98C-4F71-8492-545536884E0D}" name="kNN - AUC" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{8C4900F8-A98C-4F71-8492-545536884E0D}" name="kNN - AUC" dataDxfId="2"/>
     <tableColumn id="3" xr3:uid="{804E8097-40E5-4B14-8DB0-3038AF4231A8}" name="kNN - CA"/>
     <tableColumn id="4" xr3:uid="{DD6A6340-3EC4-486A-9D8C-998F71D34540}" name="NN - AUC"/>
     <tableColumn id="5" xr3:uid="{67E886FB-6642-47D4-9AB7-0C416E4B78B8}" name="NN - CA"/>
@@ -906,7 +1170,7 @@
   <autoFilter ref="A84:I101" xr:uid="{9C2B6D6A-EA8B-4713-A98B-05E010C1262F}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{38A258D0-AD97-46A6-B8AB-B5074E5846A6}" name="Udeleženci"/>
-    <tableColumn id="2" xr3:uid="{14DE7E5D-1EF5-4673-A977-86DE07E000E9}" name="kNN - AUC" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{14DE7E5D-1EF5-4673-A977-86DE07E000E9}" name="kNN - AUC" dataDxfId="1"/>
     <tableColumn id="3" xr3:uid="{3CD823B4-C552-4EA6-B444-1B5A4845DA74}" name="kNN - CA"/>
     <tableColumn id="4" xr3:uid="{4A29594B-9E64-4D9D-9AC9-AF8A0DF8D551}" name="NN - AUC"/>
     <tableColumn id="5" xr3:uid="{E2049AE6-2883-4916-BF72-4277D7CF7EB4}" name="NN - CA"/>
@@ -914,6 +1178,24 @@
     <tableColumn id="7" xr3:uid="{0A71AB02-FDD5-4EEC-B8CC-79D4C43A26CC}" name="Tree - CA"/>
     <tableColumn id="8" xr3:uid="{EB309FE5-CD38-475B-94E9-0CF213E95E32}" name="NB - AUC"/>
     <tableColumn id="9" xr3:uid="{65093B21-0AB0-4116-A329-A64512C0C465}" name="NB - CA"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{4C175799-380C-44A8-863A-685184A3E810}" name="Table13567" displayName="Table13567" ref="A103:I120" totalsRowShown="0">
+  <autoFilter ref="A103:I120" xr:uid="{4C175799-380C-44A8-863A-685184A3E810}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{87377831-735D-4E9C-8D09-D49FAE57216F}" name="Udeleženci"/>
+    <tableColumn id="2" xr3:uid="{B0F7EF35-0322-4270-A1E3-C84B8AD676B0}" name="kNN - AUC" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{FE3EC10B-528F-4225-941B-7DD256CC9820}" name="kNN - CA"/>
+    <tableColumn id="4" xr3:uid="{D20A09F4-5E24-4065-81D9-1E05751E2487}" name="NN - AUC"/>
+    <tableColumn id="5" xr3:uid="{7194F60F-5B20-45F1-ABD0-87E47703CDEB}" name="NN - CA"/>
+    <tableColumn id="6" xr3:uid="{4952E792-C6C5-476F-8F19-9BDDEE14BFCA}" name="Tree - AUC"/>
+    <tableColumn id="7" xr3:uid="{99333064-F33E-4D01-9E2E-BD0D5C674DCE}" name="Tree - CA"/>
+    <tableColumn id="8" xr3:uid="{A7E08CA8-F31E-46EC-B32D-31F404F32E63}" name="NB - AUC"/>
+    <tableColumn id="9" xr3:uid="{21A8B3BD-A98B-4F95-B34D-0C8847728940}" name="NB - CA"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1216,10 +1498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:I101"/>
+  <dimension ref="A2:I120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J102" sqref="B85:J102"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J119" sqref="J119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2474,35 +2756,35 @@
         <v>25</v>
       </c>
       <c r="B81" s="2">
-        <f>AVERAGE(B65:B80)</f>
+        <f t="shared" ref="B81:I81" si="0">AVERAGE(B65:B80)</f>
         <v>53.268749999999997</v>
       </c>
       <c r="C81" s="2">
-        <f>AVERAGE(C65:C80)</f>
+        <f t="shared" si="0"/>
         <v>25.387499999999996</v>
       </c>
       <c r="D81" s="2">
-        <f>AVERAGE(D65:D80)</f>
+        <f t="shared" si="0"/>
         <v>68.812500000000014</v>
       </c>
       <c r="E81" s="2">
-        <f>AVERAGE(E65:E80)</f>
+        <f t="shared" si="0"/>
         <v>28.612500000000001</v>
       </c>
       <c r="F81" s="2">
-        <f>AVERAGE(F65:F80)</f>
+        <f t="shared" si="0"/>
         <v>52.706249999999997</v>
       </c>
       <c r="G81" s="3">
-        <f>AVERAGE(G65:G80)</f>
+        <f t="shared" si="0"/>
         <v>24.025000000000002</v>
       </c>
       <c r="H81" s="3">
-        <f>AVERAGE(H65:H80)</f>
+        <f t="shared" si="0"/>
         <v>63.71875</v>
       </c>
       <c r="I81" s="3">
-        <f>AVERAGE(I65:I80)</f>
+        <f t="shared" si="0"/>
         <v>24.349999999999998</v>
       </c>
     </row>
@@ -2539,178 +2821,1035 @@
       <c r="A85" t="s">
         <v>9</v>
       </c>
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
-      <c r="F85" s="2"/>
+      <c r="B85" s="2">
+        <v>68.7</v>
+      </c>
+      <c r="C85" s="2">
+        <v>49.4</v>
+      </c>
+      <c r="D85" s="2">
+        <v>87.2</v>
+      </c>
+      <c r="E85" s="2">
+        <v>50.5</v>
+      </c>
+      <c r="F85" s="2">
+        <v>56.6</v>
+      </c>
+      <c r="G85">
+        <v>30.1</v>
+      </c>
+      <c r="H85">
+        <v>79.8</v>
+      </c>
+      <c r="I85">
+        <v>36.5</v>
+      </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>10</v>
       </c>
-      <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
+      <c r="B86" s="2">
+        <v>67.5</v>
+      </c>
+      <c r="C86" s="2">
+        <v>48.8</v>
+      </c>
+      <c r="D86" s="2">
+        <v>71.2</v>
+      </c>
+      <c r="E86" s="2">
+        <v>34.9</v>
+      </c>
+      <c r="F86">
+        <v>62.2</v>
+      </c>
+      <c r="G86">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="H86">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="I86">
+        <v>32.700000000000003</v>
+      </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>11</v>
       </c>
-      <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
-      <c r="I87" s="4"/>
+      <c r="B87" s="2">
+        <v>71.099999999999994</v>
+      </c>
+      <c r="C87" s="2">
+        <v>55.6</v>
+      </c>
+      <c r="D87" s="2">
+        <v>88.8</v>
+      </c>
+      <c r="E87" s="2">
+        <v>53.2</v>
+      </c>
+      <c r="F87" s="5">
+        <v>66</v>
+      </c>
+      <c r="G87">
+        <v>37.6</v>
+      </c>
+      <c r="H87">
+        <v>71.7</v>
+      </c>
+      <c r="I87" s="4">
+        <v>26.7</v>
+      </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>12</v>
       </c>
-      <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
-      <c r="H88" s="3"/>
-      <c r="I88" s="3"/>
+      <c r="B88" s="2">
+        <v>59.4</v>
+      </c>
+      <c r="C88" s="2">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="D88" s="2">
+        <v>83.7</v>
+      </c>
+      <c r="E88" s="2">
+        <v>55</v>
+      </c>
+      <c r="F88">
+        <v>58.4</v>
+      </c>
+      <c r="G88">
+        <v>37.4</v>
+      </c>
+      <c r="H88" s="3">
+        <v>79.8</v>
+      </c>
+      <c r="I88" s="3">
+        <v>36.5</v>
+      </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>13</v>
       </c>
-      <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
+      <c r="B89" s="2">
+        <v>60.4</v>
+      </c>
+      <c r="C89" s="2">
+        <v>38.5</v>
+      </c>
+      <c r="D89" s="2">
+        <v>84</v>
+      </c>
+      <c r="E89" s="2">
+        <v>49.9</v>
+      </c>
+      <c r="F89">
+        <v>49.8</v>
+      </c>
+      <c r="G89">
+        <v>20.3</v>
+      </c>
+      <c r="H89">
+        <v>64.7</v>
+      </c>
+      <c r="I89">
+        <v>33.6</v>
+      </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>14</v>
       </c>
-      <c r="B90" s="2"/>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
-      <c r="E90" s="2"/>
+      <c r="B90" s="2">
+        <v>64</v>
+      </c>
+      <c r="C90" s="2">
+        <v>41.3</v>
+      </c>
+      <c r="D90" s="2">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="E90" s="2">
+        <v>40.5</v>
+      </c>
+      <c r="F90">
+        <v>52.2</v>
+      </c>
+      <c r="G90">
+        <v>23.4</v>
+      </c>
+      <c r="H90">
+        <v>61.5</v>
+      </c>
+      <c r="I90">
+        <v>30.4</v>
+      </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>15</v>
       </c>
-      <c r="B91" s="2"/>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
+      <c r="B91" s="2">
+        <v>62.2</v>
+      </c>
+      <c r="C91" s="2">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="D91" s="2">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="E91" s="2">
+        <v>37</v>
+      </c>
+      <c r="F91">
+        <v>55.8</v>
+      </c>
+      <c r="G91">
+        <v>32.5</v>
+      </c>
+      <c r="H91" s="3">
+        <v>69</v>
+      </c>
+      <c r="I91">
+        <v>21.1</v>
+      </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>16</v>
       </c>
-      <c r="B92" s="2"/>
-      <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
-      <c r="E92" s="2"/>
+      <c r="B92" s="2">
+        <v>66</v>
+      </c>
+      <c r="C92" s="2">
+        <v>47.4</v>
+      </c>
+      <c r="D92" s="2">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="E92" s="2">
+        <v>50.9</v>
+      </c>
+      <c r="F92" s="3">
+        <v>56</v>
+      </c>
+      <c r="G92">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="H92">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="I92">
+        <v>28.3</v>
+      </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>17</v>
       </c>
-      <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
-      <c r="E93" s="2"/>
-      <c r="H93" s="2"/>
+      <c r="B93" s="2">
+        <v>65.099999999999994</v>
+      </c>
+      <c r="C93" s="2">
+        <v>45</v>
+      </c>
+      <c r="D93" s="2">
+        <v>84.8</v>
+      </c>
+      <c r="E93" s="2">
+        <v>58.6</v>
+      </c>
+      <c r="F93">
+        <v>54.1</v>
+      </c>
+      <c r="G93">
+        <v>31.9</v>
+      </c>
+      <c r="H93" s="2">
+        <v>63.9</v>
+      </c>
+      <c r="I93">
+        <v>29.3</v>
+      </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>18</v>
       </c>
-      <c r="B94" s="2"/>
-      <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
-      <c r="E94" s="2"/>
+      <c r="B94" s="2">
+        <v>56</v>
+      </c>
+      <c r="C94" s="2">
+        <v>29.2</v>
+      </c>
+      <c r="D94" s="2">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="E94" s="2">
+        <v>30.2</v>
+      </c>
+      <c r="F94">
+        <v>58.3</v>
+      </c>
+      <c r="G94">
+        <v>29.7</v>
+      </c>
+      <c r="H94">
+        <v>56.1</v>
+      </c>
+      <c r="I94">
+        <v>25.7</v>
+      </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>19</v>
       </c>
-      <c r="B95" s="2"/>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
-      <c r="E95" s="2"/>
+      <c r="B95" s="2">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="C95" s="2">
+        <v>43.3</v>
+      </c>
+      <c r="D95" s="2">
+        <v>85.2</v>
+      </c>
+      <c r="E95" s="2">
+        <v>56.9</v>
+      </c>
+      <c r="F95" s="3">
+        <v>62</v>
+      </c>
+      <c r="G95">
+        <v>41.5</v>
+      </c>
+      <c r="H95">
+        <v>65.900000000000006</v>
+      </c>
+      <c r="I95">
+        <v>24.1</v>
+      </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>20</v>
       </c>
-      <c r="B96" s="2"/>
-      <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
-      <c r="E96" s="2"/>
+      <c r="B96" s="2">
+        <v>60.7</v>
+      </c>
+      <c r="C96" s="2">
+        <v>37.5</v>
+      </c>
+      <c r="D96" s="2">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="E96" s="2">
+        <v>41.2</v>
+      </c>
+      <c r="F96">
+        <v>54.2</v>
+      </c>
+      <c r="G96">
+        <v>25.8</v>
+      </c>
+      <c r="H96">
+        <v>62.6</v>
+      </c>
+      <c r="I96">
+        <v>20.100000000000001</v>
+      </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>21</v>
       </c>
-      <c r="B97" s="2"/>
-      <c r="C97" s="2"/>
-      <c r="D97" s="2"/>
-      <c r="E97" s="2"/>
-      <c r="F97" s="3"/>
-      <c r="H97" s="2"/>
+      <c r="B97" s="2">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="C97" s="2">
+        <v>52.6</v>
+      </c>
+      <c r="D97" s="2">
+        <v>82.9</v>
+      </c>
+      <c r="E97" s="2">
+        <v>49.5</v>
+      </c>
+      <c r="F97" s="3">
+        <v>59.2</v>
+      </c>
+      <c r="G97">
+        <v>39.9</v>
+      </c>
+      <c r="H97" s="2">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="I97">
+        <v>42.3</v>
+      </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>22</v>
       </c>
-      <c r="B98" s="2"/>
-      <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
-      <c r="E98" s="2"/>
-      <c r="H98" s="3"/>
+      <c r="B98" s="2">
+        <v>61.5</v>
+      </c>
+      <c r="C98" s="2">
+        <v>39.4</v>
+      </c>
+      <c r="D98" s="2">
+        <v>74.3</v>
+      </c>
+      <c r="E98" s="2">
+        <v>30.8</v>
+      </c>
+      <c r="F98" s="3">
+        <v>50</v>
+      </c>
+      <c r="G98">
+        <v>25.5</v>
+      </c>
+      <c r="H98" s="3">
+        <v>62.9</v>
+      </c>
+      <c r="I98">
+        <v>22.3</v>
+      </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>23</v>
       </c>
-      <c r="B99" s="2"/>
-      <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
-      <c r="E99" s="2"/>
+      <c r="B99" s="2">
+        <v>62.8</v>
+      </c>
+      <c r="C99" s="2">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="D99" s="2">
+        <v>77.900000000000006</v>
+      </c>
+      <c r="E99" s="2">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="F99">
+        <v>61.3</v>
+      </c>
+      <c r="G99">
+        <v>35.6</v>
+      </c>
+      <c r="H99">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="I99">
+        <v>27.8</v>
+      </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>24</v>
       </c>
-      <c r="B100" s="2"/>
-      <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
-      <c r="E100" s="2"/>
+      <c r="B100" s="2">
+        <v>60</v>
+      </c>
+      <c r="C100" s="2">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="D100" s="2">
+        <v>78.8</v>
+      </c>
+      <c r="E100" s="2">
+        <v>42.7</v>
+      </c>
+      <c r="F100">
+        <v>55.3</v>
+      </c>
+      <c r="G100">
+        <v>29.1</v>
+      </c>
+      <c r="H100">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="I100">
+        <v>30.9</v>
+      </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>25</v>
       </c>
-      <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
-      <c r="E101" s="2"/>
-      <c r="F101" s="2"/>
-      <c r="G101" s="3"/>
-      <c r="H101" s="3"/>
-      <c r="I101" s="3"/>
+      <c r="B101" s="2">
+        <f>AVERAGE(B85:B100)</f>
+        <v>63.793749999999996</v>
+      </c>
+      <c r="C101" s="2">
+        <f>AVERAGE(C85:C100)</f>
+        <v>42.381249999999994</v>
+      </c>
+      <c r="D101" s="2">
+        <f t="shared" ref="D101:I101" si="1">AVERAGE(D85:D100)</f>
+        <v>78.137500000000003</v>
+      </c>
+      <c r="E101" s="2">
+        <f t="shared" si="1"/>
+        <v>45.131250000000001</v>
+      </c>
+      <c r="F101" s="2">
+        <f t="shared" si="1"/>
+        <v>56.962499999999999</v>
+      </c>
+      <c r="G101" s="2">
+        <f t="shared" si="1"/>
+        <v>32.118749999999999</v>
+      </c>
+      <c r="H101" s="2">
+        <f t="shared" si="1"/>
+        <v>68.618749999999991</v>
+      </c>
+      <c r="I101" s="2">
+        <f t="shared" si="1"/>
+        <v>29.268750000000004</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1</v>
+      </c>
+      <c r="C103" t="s">
+        <v>2</v>
+      </c>
+      <c r="D103" t="s">
+        <v>3</v>
+      </c>
+      <c r="E103" t="s">
+        <v>4</v>
+      </c>
+      <c r="F103" t="s">
+        <v>5</v>
+      </c>
+      <c r="G103" t="s">
+        <v>6</v>
+      </c>
+      <c r="H103" t="s">
+        <v>7</v>
+      </c>
+      <c r="I103" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>9</v>
+      </c>
+      <c r="B104" s="2">
+        <v>74.8</v>
+      </c>
+      <c r="C104" s="2">
+        <v>60.9</v>
+      </c>
+      <c r="D104" s="2">
+        <v>79.8</v>
+      </c>
+      <c r="E104" s="2">
+        <v>43.2</v>
+      </c>
+      <c r="F104" s="2">
+        <v>59.7</v>
+      </c>
+      <c r="G104">
+        <v>38.9</v>
+      </c>
+      <c r="H104">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="I104">
+        <v>49.8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>10</v>
+      </c>
+      <c r="B105" s="2">
+        <v>66.7</v>
+      </c>
+      <c r="C105" s="2">
+        <v>47.6</v>
+      </c>
+      <c r="D105" s="2">
+        <v>78.5</v>
+      </c>
+      <c r="E105" s="2">
+        <v>54</v>
+      </c>
+      <c r="F105">
+        <v>56.8</v>
+      </c>
+      <c r="G105">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="H105">
+        <v>70.5</v>
+      </c>
+      <c r="I105">
+        <v>45.4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>11</v>
+      </c>
+      <c r="B106" s="2">
+        <v>63.7</v>
+      </c>
+      <c r="C106" s="2">
+        <v>41.7</v>
+      </c>
+      <c r="D106" s="2">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="E106" s="2">
+        <v>32.4</v>
+      </c>
+      <c r="F106" s="3">
+        <v>54.8</v>
+      </c>
+      <c r="G106">
+        <v>27.9</v>
+      </c>
+      <c r="H106" s="3">
+        <v>70</v>
+      </c>
+      <c r="I106" s="4">
+        <v>45.7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>12</v>
+      </c>
+      <c r="B107" s="2">
+        <v>61.8</v>
+      </c>
+      <c r="C107" s="2">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="D107" s="2">
+        <v>69.3</v>
+      </c>
+      <c r="E107" s="2">
+        <v>37.4</v>
+      </c>
+      <c r="F107">
+        <v>53.3</v>
+      </c>
+      <c r="G107">
+        <v>25.3</v>
+      </c>
+      <c r="H107" s="3"/>
+      <c r="I107" s="3">
+        <v>42.7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>13</v>
+      </c>
+      <c r="B108" s="2">
+        <v>63.1</v>
+      </c>
+      <c r="C108" s="2">
+        <v>42.6</v>
+      </c>
+      <c r="D108" s="2">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="E108" s="2">
+        <v>35.6</v>
+      </c>
+      <c r="F108">
+        <v>54.3</v>
+      </c>
+      <c r="G108">
+        <v>30.6</v>
+      </c>
+      <c r="H108">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="I108">
+        <v>41.1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>14</v>
+      </c>
+      <c r="B109" s="2">
+        <v>58.6</v>
+      </c>
+      <c r="C109" s="2">
+        <v>33.4</v>
+      </c>
+      <c r="D109" s="2">
+        <v>67.2</v>
+      </c>
+      <c r="E109" s="2">
+        <v>23.3</v>
+      </c>
+      <c r="F109">
+        <v>54.5</v>
+      </c>
+      <c r="G109">
+        <v>29.6</v>
+      </c>
+      <c r="H109" s="3">
+        <v>62</v>
+      </c>
+      <c r="I109">
+        <v>24.2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>15</v>
+      </c>
+      <c r="B110" s="2">
+        <v>61.6</v>
+      </c>
+      <c r="C110" s="2">
+        <v>39.4</v>
+      </c>
+      <c r="D110" s="2">
+        <v>63.4</v>
+      </c>
+      <c r="E110" s="2">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="F110">
+        <v>51.8</v>
+      </c>
+      <c r="G110">
+        <v>23.6</v>
+      </c>
+      <c r="H110" s="3">
+        <v>62.4</v>
+      </c>
+      <c r="I110">
+        <v>34.299999999999997</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>16</v>
+      </c>
+      <c r="B111" s="2">
+        <v>65.099999999999994</v>
+      </c>
+      <c r="C111" s="2">
+        <v>44.7</v>
+      </c>
+      <c r="D111" s="2">
+        <v>77.2</v>
+      </c>
+      <c r="E111" s="2">
+        <v>35.4</v>
+      </c>
+      <c r="F111" s="3">
+        <v>53.5</v>
+      </c>
+      <c r="G111">
+        <v>22.9</v>
+      </c>
+      <c r="H111">
+        <v>59.6</v>
+      </c>
+      <c r="I111" s="3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>17</v>
+      </c>
+      <c r="B112" s="2">
+        <v>62.9</v>
+      </c>
+      <c r="C112" s="2">
+        <v>41.2</v>
+      </c>
+      <c r="D112" s="2">
+        <v>71.2</v>
+      </c>
+      <c r="E112" s="2">
+        <v>34.6</v>
+      </c>
+      <c r="F112">
+        <v>54.3</v>
+      </c>
+      <c r="G112" s="3">
+        <v>27</v>
+      </c>
+      <c r="H112" s="2">
+        <v>61.9</v>
+      </c>
+      <c r="I112">
+        <v>29.3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>18</v>
+      </c>
+      <c r="B113" s="2">
+        <v>58</v>
+      </c>
+      <c r="C113" s="2">
+        <v>32.1</v>
+      </c>
+      <c r="D113" s="2">
+        <v>69.7</v>
+      </c>
+      <c r="E113" s="2">
+        <v>28.3</v>
+      </c>
+      <c r="F113" s="3">
+        <v>54</v>
+      </c>
+      <c r="G113">
+        <v>26.9</v>
+      </c>
+      <c r="H113">
+        <v>59.6</v>
+      </c>
+      <c r="I113">
+        <v>33.200000000000003</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>19</v>
+      </c>
+      <c r="B114" s="2">
+        <v>68</v>
+      </c>
+      <c r="C114" s="2">
+        <v>47.9</v>
+      </c>
+      <c r="D114" s="2">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="E114" s="2">
+        <v>35</v>
+      </c>
+      <c r="F114" s="3">
+        <v>52.8</v>
+      </c>
+      <c r="G114">
+        <v>23.1</v>
+      </c>
+      <c r="H114" s="3">
+        <v>69</v>
+      </c>
+      <c r="I114">
+        <v>34.200000000000003</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>20</v>
+      </c>
+      <c r="B115" s="2">
+        <v>60.6</v>
+      </c>
+      <c r="C115" s="2">
+        <v>37.5</v>
+      </c>
+      <c r="D115" s="2">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="E115" s="2">
+        <v>30.8</v>
+      </c>
+      <c r="F115">
+        <v>52.2</v>
+      </c>
+      <c r="G115">
+        <v>22.4</v>
+      </c>
+      <c r="H115" s="3">
+        <v>64</v>
+      </c>
+      <c r="I115">
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>21</v>
+      </c>
+      <c r="B116" s="2">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="C116" s="2">
+        <v>56.2</v>
+      </c>
+      <c r="D116" s="2">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="E116" s="2">
+        <v>43</v>
+      </c>
+      <c r="F116" s="3">
+        <v>56.4</v>
+      </c>
+      <c r="G116">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="H116" s="2"/>
+      <c r="I116">
+        <v>42.4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>22</v>
+      </c>
+      <c r="B117" s="2">
+        <v>61.5</v>
+      </c>
+      <c r="C117" s="2">
+        <v>39.4</v>
+      </c>
+      <c r="D117" s="2">
+        <v>68.7</v>
+      </c>
+      <c r="E117" s="2">
+        <v>28</v>
+      </c>
+      <c r="F117" s="3">
+        <v>62.2</v>
+      </c>
+      <c r="G117">
+        <v>38.9</v>
+      </c>
+      <c r="H117" s="3">
+        <v>56.6</v>
+      </c>
+      <c r="I117" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>23</v>
+      </c>
+      <c r="B118" s="2">
+        <v>59.9</v>
+      </c>
+      <c r="C118" s="2">
+        <v>36.1</v>
+      </c>
+      <c r="D118" s="2">
+        <v>72.3</v>
+      </c>
+      <c r="E118" s="2">
+        <v>42.2</v>
+      </c>
+      <c r="F118">
+        <v>62.7</v>
+      </c>
+      <c r="G118">
+        <v>41.4</v>
+      </c>
+      <c r="I118">
+        <v>42.7</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>24</v>
+      </c>
+      <c r="B119" s="2">
+        <v>60.6</v>
+      </c>
+      <c r="C119" s="2">
+        <v>36.5</v>
+      </c>
+      <c r="D119" s="2">
+        <v>65.8</v>
+      </c>
+      <c r="E119" s="2">
+        <v>38</v>
+      </c>
+      <c r="F119">
+        <v>51.8</v>
+      </c>
+      <c r="G119">
+        <v>22.1</v>
+      </c>
+      <c r="I119">
+        <v>38.9</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>25</v>
+      </c>
+      <c r="B120" s="2">
+        <f>AVERAGE(B104:B119)</f>
+        <v>63.718750000000007</v>
+      </c>
+      <c r="C120" s="2">
+        <f t="shared" ref="C120:I120" si="2">AVERAGE(C104:C119)</f>
+        <v>42.1875</v>
+      </c>
+      <c r="D120" s="2">
+        <f t="shared" si="2"/>
+        <v>71.737499999999997</v>
+      </c>
+      <c r="E120" s="2">
+        <f t="shared" si="2"/>
+        <v>36.0625</v>
+      </c>
+      <c r="F120" s="2">
+        <f t="shared" si="2"/>
+        <v>55.318750000000001</v>
+      </c>
+      <c r="G120" s="2">
+        <f t="shared" si="2"/>
+        <v>29.106249999999999</v>
+      </c>
+      <c r="H120" s="2">
+        <f t="shared" si="2"/>
+        <v>64.658333333333346</v>
+      </c>
+      <c r="I120" s="2">
+        <f t="shared" si="2"/>
+        <v>37.712499999999999</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <tableParts count="5">
+  <tableParts count="6">
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
     <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
 </file>